--- a/ui-testsuite/src/main/resources/TestData/Order_Assign_ByFuncLoc.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_Assign_ByFuncLoc.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Pipeline\Data test\"/>
     </mc:Choice>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="150">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -401,6 +401,84 @@
   </si>
   <si>
     <t>2152430001000</t>
+  </si>
+  <si>
+    <t>9054097603</t>
+  </si>
+  <si>
+    <t>ABCD918803</t>
+  </si>
+  <si>
+    <t>9142324595</t>
+  </si>
+  <si>
+    <t>ABCD865248</t>
+  </si>
+  <si>
+    <t>7025423679</t>
+  </si>
+  <si>
+    <t>ABCD351183</t>
+  </si>
+  <si>
+    <t>5627005106</t>
+  </si>
+  <si>
+    <t>ABCD519525</t>
+  </si>
+  <si>
+    <t>5339571069</t>
+  </si>
+  <si>
+    <t>ABCD910507</t>
+  </si>
+  <si>
+    <t>5635865252</t>
+  </si>
+  <si>
+    <t>ABCD120080</t>
+  </si>
+  <si>
+    <t>5402673708</t>
+  </si>
+  <si>
+    <t>ABCD478028</t>
+  </si>
+  <si>
+    <t>1860320217</t>
+  </si>
+  <si>
+    <t>6526141643</t>
+  </si>
+  <si>
+    <t>ABCD960416</t>
+  </si>
+  <si>
+    <t>2425289268</t>
+  </si>
+  <si>
+    <t>8937173844</t>
+  </si>
+  <si>
+    <t>ABCD395093</t>
+  </si>
+  <si>
+    <t>0939704040</t>
+  </si>
+  <si>
+    <t>ABCD277319</t>
+  </si>
+  <si>
+    <t>5578804862</t>
+  </si>
+  <si>
+    <t>ABCD438714</t>
+  </si>
+  <si>
+    <t>4039607280</t>
+  </si>
+  <si>
+    <t>ABCD391135</t>
   </si>
 </sst>
 </file>
@@ -410,7 +488,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -440,6 +518,66 @@
       <color rgb="FFFF0000"/>
       <name val="HP Simplified"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="6">
@@ -855,69 +993,69 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25" style="1" customWidth="1"/>
-    <col min="12" max="14" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="44.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="37.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="34.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="26.83203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="28.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="35.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="37.1640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="52" width="19" style="1" customWidth="1"/>
-    <col min="53" max="53" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="66" width="23.5" style="18" customWidth="1"/>
-    <col min="67" max="70" width="22.33203125" style="1" customWidth="1"/>
-    <col min="71" max="73" width="23.5" style="1" customWidth="1"/>
-    <col min="74" max="74" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="51.5" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="21.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="39.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="32.1640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="23.33203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="41.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="25.0" collapsed="true"/>
+    <col min="12" max="14" bestFit="true" customWidth="true" style="1" width="25.83203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="30.33203125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="25.83203125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="22.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="44.33203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="16.83203125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="37.5" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="30.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="30.83203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="34.1640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="21.83203125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="21.1640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="18.1640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="16.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="16.33203125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="25.0" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="30.83203125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="22.1640625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="28.5" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="26.33203125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="37.33203125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="1" width="17.1640625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="1" width="25.83203125" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="19" width="26.83203125" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="19" width="28.5" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="19" width="35.5" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="19" width="37.1640625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="20.6640625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="16.6640625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="20.83203125" collapsed="true"/>
+    <col min="45" max="52" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="1" width="15.83203125" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="1" width="12.6640625" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" style="1" width="14.6640625" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="57" max="58" bestFit="true" customWidth="true" style="1" width="7.6640625" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" style="1" width="12.83203125" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="1" width="8.5" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="1" width="11.33203125" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="1" width="9.33203125" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" style="1" width="15.33203125" collapsed="true"/>
+    <col min="64" max="66" customWidth="true" style="18" width="23.5" collapsed="true"/>
+    <col min="67" max="70" customWidth="true" style="1" width="22.33203125" collapsed="true"/>
+    <col min="71" max="73" customWidth="true" style="1" width="23.5" collapsed="true"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" style="1" width="15.33203125" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" style="1" width="9.1640625" collapsed="true"/>
+    <col min="76" max="76" bestFit="true" customWidth="true" style="1" width="13.1640625" collapsed="true"/>
+    <col min="77" max="77" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="78" max="78" bestFit="true" customWidth="true" style="1" width="16.33203125" collapsed="true"/>
+    <col min="79" max="79" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="80" max="16384" style="1" width="9.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:79" ht="12.75" x14ac:dyDescent="0.15">
@@ -1292,13 +1430,13 @@
         <v>42839</v>
       </c>
       <c r="AV2" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="AW2" s="16">
-        <v>104482979996</v>
+        <v>149</v>
+      </c>
+      <c r="AW2" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="AX2" s="20" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="AY2" s="14" t="s">
         <v>118</v>

--- a/ui-testsuite/src/main/resources/TestData/Order_Assign_ByFuncLoc.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_Assign_ByFuncLoc.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="154">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -479,6 +479,18 @@
   </si>
   <si>
     <t>ABCD391135</t>
+  </si>
+  <si>
+    <t>9626525468</t>
+  </si>
+  <si>
+    <t>ABCD910518</t>
+  </si>
+  <si>
+    <t>8790123778</t>
+  </si>
+  <si>
+    <t>ABCD228926</t>
   </si>
 </sst>
 </file>
@@ -488,7 +500,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -518,6 +530,16 @@
       <color rgb="FFFF0000"/>
       <name val="HP Simplified"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1430,13 +1452,13 @@
         <v>42839</v>
       </c>
       <c r="AV2" s="21" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AW2" s="16" t="s">
         <v>141</v>
       </c>
       <c r="AX2" s="20" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AY2" s="14" t="s">
         <v>118</v>

--- a/ui-testsuite/src/main/resources/TestData/Order_Assign_ByFuncLoc.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_Assign_ByFuncLoc.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="156">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -491,6 +491,12 @@
   </si>
   <si>
     <t>ABCD228926</t>
+  </si>
+  <si>
+    <t>3050730281</t>
+  </si>
+  <si>
+    <t>ABCD330972</t>
   </si>
 </sst>
 </file>
@@ -500,7 +506,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -530,6 +536,11 @@
       <color rgb="FFFF0000"/>
       <name val="HP Simplified"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1452,13 +1463,13 @@
         <v>42839</v>
       </c>
       <c r="AV2" s="21" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AW2" s="16" t="s">
         <v>141</v>
       </c>
       <c r="AX2" s="20" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AY2" s="14" t="s">
         <v>118</v>
